--- a/deuChatbot/research_result/results/meteor_score/meteor_version_1(1500_400).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_1(1500_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6052,61 +6052,3407 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 디자인조형학과 전체
+2. **실기종목**:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+   - 기초디자인, 사고의 전환 (이 중 택 1)
+3. **종목별 배점(비율)**: 
+   - 기초디자인, 사고의 전환: 700점 (70%)
+4. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+5. **실기주제**: 
+   - 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 주제A는 잠자리, 무궁화, 피망 등이고, 주제B는 악보, 줄자, 스카치테이프 등입니다.
+6. **화지크기**: 켄트지 3절
+7. **시험기간**: 5시간
+8. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 주제에 대한 깊은 이해와 창의적인 접근력을 발휘하는 것이 중요합니다. 또한, 시간 관리를 잘하여 모든 요구사항을 충족시키는 데 필요한 작업량을 처리할 수 있도록 계획을 세우는 것도 도움이 될 것입니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4066520686876233</v>
+        <v>0.4470823462964847</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+- **실기종목**: 시각디자인, 산업디자인, 공예디자인 중 선택 (700점, 70%)
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+  - 예시: 잠자리와 저울, 콜라병과 계절 등
+- **화지크기**:
+  - 켄트지3절 (A4 크기)
+- **시간**: 
+  - 5시간
+디자인조형학과의 실기고사는 다양한 도구를 준비해야 하며, 주제는 당일 추첨으로 결정됩니다. 화지는 A4 크기의 켄트지를 사용하며, 시간은 5시간 동안 진행됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.3204872194924808</v>
+        <v>0.4000857524466417</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9894516673000953</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기 시험에서 사용되는 주제들은 다음과 같습니다:
+1. 주제A (예시): 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B (예시): 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+참고로, 실제 시험에서는 당일에 주제가 추첨되어 결정되므로 위의 예시는 참고용이며 실제 시험에서 사용될 수 있는 다양한 주제들이 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4708692033976125</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서는 출결 점수가 반영됩니다. 
+출결 점수는 다음과 같이 반영됩니다:
+- 결석일수 / 반영점수 표로, 예를 들어:
+  - 0~2일 : 120점
+  - 3~6일 : 90점 
+  - 7~12일 : 60점  
+  - 13~20일 : 30점
+  - 21일 이상 : 0점
+- 단, 미인정, 사고, 무단 지각/조퇴/결과 3회는 결석 1회로 간주됩니다.
+따라서 출결 기록이 학생부교과 전형 점수에 영향을 줍니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.04875406283856987</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 "전형별 모집단위별 모집인원" 표에서 확인할 수 있습니다. 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직의 정원 내 모집인원이 17명으로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.2006660404747674</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.1973401973401973</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 
+의료보건생활대학 간호학과는 나군 일반학생전형에서 최대 22명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4912663755458515</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的信息，关于大学入学考试（수능）英语等级对应的分数：
+| 등급 | 점수 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+这个表格显示了不同英语等级对应的分数。例如，英语等级为1的学生将获得139分，而等级为9的学生将获得75分。</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면, "예술고 출신자는 지원할 수 없습니다."라고 명시되어 있습니다.
+따라서 예술고 학생이 나군 학생부교과(농어촌학생전형)를 통해 지원하는 것은 불가능합니다. 다른 전형을 탐색하거나, 일반고나 특수목적고 출신으로 변경하여 지원하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.3335517785669992</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 268~271cm이며, 해당 등급의 배점은 275점입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 내용]
+```
+레저스포츠학과 / 제자리 멀리뛰기(cm) { 남 / 여 / 배점 } /
+{ 280이상 /  230 이상 /  350 / } /
+{ 276~279 /  226~229 /  325 / } /
+{ 272～275 /  222~225 /  300 / } /
+{ 268～271 /  218~221 /  275 / } /
+{ 264～267 /  214~217 /  250 / } /
+{ 260～263 /  210~213 /  225 / } /
+{ 256～259 /  206~209 /  200 / } /
+{ 252～255 /  202~205 /  175 / } /
+{ 248～251 /  198~201 /  150 / } /
+{ 244～247 /  194~197 /  125 / } /
+{ 240～243 /  190~193 /  100 / } /
+{ 236~239 /  186~189 /  75 / } /
+{ 232~235 /  182~185 /  50 / } /
+{ 228~231 /  178~181 /  25 / } /
+{ 227이하 /  177이하 /  0 / } /
+```
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 268~271cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.0793699412297795</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다. 경기지도학과의 전형요소 반영비율에서 출결은 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4670157068062827</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 일정은 전형일정 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.08771929824561404</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 응용화학과가 다군 수능(일반학생전형) 모집단위에 속하는 것을 볼 수 있습니다.
+다군 수능(일반학생전형) 모집단위의 경우, 수능 최저기준이 표시되어 있지 않습니다. 제공된 정보에서 "수능최저기준 없음"이라는 표현을 확인할 수 있습니다.
+따라서, 2024학년도 동의대학교 응용화학과의 다군 수능(일반학생전형)에서는 수능 최저기준이 설정되어 있지 않다는 것을 알 수 있습니다. 
+더 자세한 정보를 얻으시려면, 대학 입학처 웹사이트 또는 직접 문의하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크로 가보시거나, 학교 입학처에 연락하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.02741341193809874</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 상경대학 - 스마트항만물류학과 (신설)
+2. 상경대학 - 창업투자경영학과 (신설)
+3. 인문사회과학대학 - 심리학과 (신설)
+4. 인문사회과학대학 - 아동학과
+5. 미래융합대학 - 라이프융합학부 (신설 - 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+6. 공과대학 - 로봇자동화공학과
+7. ICT융합공과대학 - 인공지능학과
+위와 같이 7개의 신설 학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4303508771929825</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [표 제목 : 전형요소 반영비율]에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4793505691159069</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+상세 내용은 다음과 같습니다:
+- **모집단위**: 공과대학, ICT융합공과대학
+- **조건**: 수학(미적분 또는 기하) 응시자
+- **가산점**: 수학 취득 표준점수의 10%
+이 정보는 "가산점" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4802095459837019</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전반적으로 100%로 반영됩니다. 단, 레저스포츠학과와 태권도학과는 실기고사가 포함되어서 실기고사 비율이 70%, 수능 성적은 30%로 반영됩니다.
+전형요소 반영비율을 확인하는 표는 다음과 같습니다:
+``` 
+가군 수능 (일반학생전형) / 전 모집단위(레저스포츠학과, 태권도학과 제외) / { 100% / - / } /
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / } /
+```
+따라서 일반적으로 가군의 수능 성적은 100%로 반영되지만, 특정 모집단위에서는 실기고사가 더 큰 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1573390733907339</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 실시됩니다.
+추가 정보:
+- 태권도학과와 레저스포츠학과의 실기고사는 이 날짜에 함께 진행됩니다.
+- 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+상세 일정은 다음과 같습니다:
+```
+&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과 / 2024. 01. 16.(화) / 
+```</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1703703703703704</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 요소를 반영받는 모집단위로 분류되어 있습니다.
+따라서, 일반학생전형에서 수능 절대적인 위주로 평가하는 모집단위에서는 디자인조형학과, 체육학과, 경기지도학과가 제외됩니다. 
+즉, 레저스포츠학과와 태권도학과 외의 모든 학과는 수능 위주로 평가받습니다.
+참고로, 디자인조형학과, 체육학과, 경기지도학과에서는 실기/실적 요소가 30% 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.2683687599161378</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 표에서 확인할 수 있습니다:
+``` 
+다군 수능(일반학생전형) / 180 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음 /
+```
+수능 최저기준 항목에 "수능최저기준 없음"이라는 내용이 기재되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.178192810207824</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+이러한 분리로 인해 각 학과는 더 전문적인 교육을 제공할 수 있게 되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.7978912936287708</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.
+원서접수 일정은 다음과 같습니다:
+- **원서접수(인터넷)**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+이 기간 내에 원서 접수를 완료해야 하며, 마감 시간 이후에는 접속이 차단되어 원서접수가 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1792373971193416</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **가군 수능(일반학생전형)**:
+   - 전형 요소 반영 비율이 변동 없음 (수능 100%).
+2. **나군 실기/실적(일반학생전형) 디자인조형학과, 체육학과**:
+   - 실기 실적 비중이 증가하여 70%로 변경됨.
+3. **나군 학생부교과(농어촌학생전형), (평생학습자전형), (성인학습자(정원내)전형), (성인학습자(정원외)전형)**:
+   - 서류 비중이 증가하여 70%로 변경됨.
+4. **나군 학생부종합(재직자전형) - 정원외**:
+   - 서류 비중이 증가하여 70%로 변경됨.
+5. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류 비중이 증가하여 60%로 변경됨.
+이러한 변화는 전반적으로 수능 위주의 전형에서 실기/실적, 학생부 교과 및 종합 평가의 비중을 높이는 방향으로 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2466853849342329</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 70%입니다.
+- 다른 모집단위는 30%입니다.
+따라서, 전체적으로 실기 비중은 30%이며, 일부 특정 학과에서는 70%의 비중을 가지게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2334562826655052</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업 창업 투자학 (Start-up Startup Investment)
+- 뷰티 비즈니스학 (Beauty Business) 
+- 라이프 생활 문화학 (Life Culture)
+이러한 세부 전공들은 미래 융합 분야에서 필요한 다양한 역량을 기르기 위해 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.445280126101386</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 수능(일반학생전형)에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4514696287869915</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 가군 실기/실적(일반학생전형) - 레저스포츠학과, 태권도학과
+2. 나군 실기/실적(일반학생전형) - 디자인조형학과, 체육학과 
+3. 다군 실기/실적(일반학생전형) - 경기지도학과
+이러한 학과들은 전형명에 "실기/실적"을 포함하고 있으며, 해당 전형은 실기나 실적을 중점적으로 평가합니다.
+따라서 실기/실적 위주 전형을 지원하려면 위의 학과들 중에서 원하는 학과를 선택하여 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.2854936539506234</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 라이프융합학부는 다음과 같은 전공을 제공하고 있습니다:
+- 스타트업 창업 투자학 (Startup Investment and Entrepreneurship)
+- 뷰티 비즈니스학 (Beauty Business Studies)
+- 라이프 생활 문화학 (Life Culture Studies)
+따라서, 동의대학교 라이프융합학부는 주로 스타트업과 창업 투자, 뷰티 산업, 그리고 일상생활 문화와 관련된 다양한 분야를 다루고 있는 전공들을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.2584362139917696</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，且是特殊目的高中毕业生，因此根据上述信息，你不符合东义大学农林学生类型（나군 학생부교과(농어촌학생전형)）的申请资格。该类型的招生对象要求是在农村或偏远地区的中学完成整个教育过程，并且在学习期间本人及其父母至少有一方居住在这些地区。
+对于一般学生类型（가군, 나군의 일반학생전형），如果你不符合特殊目的高中的条件，你仍然可以尝试申请。建议直接访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）以获取最新的招生信息和具体要求，因为政策可能会有所变化。
+希望这些信息对你有帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2438693576388889</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원을 확인해야 합니다. 하지만 제공된 데이터 중에는 나군 학생부교과(농어촌학생전형) - 정원외와 같은 특정 학과의 정원 정보만 명시되어 있습니다.
+다음은 나군 학생부교과(농어촌학생전형) - 정원외의 모집인원입니다:
+- 나군 학생부교과(농어촌학생전형) - 정원외: 16명
+이 정보만으로는 가장 많이 모집하는 학과를 단정하기 어렵습니다. 제공된 데이터 외에 다른 나군 학과의 정원 정보가 더 필요합니다.
+따라서, 현재로선 가장 많은 모집인원을 가진 학과를 명확히 알 수 없습니다. 추가적인 정보가 있으면 정확한 답변을 드릴 수 있습니다. 필요한 경우 공식 홈페이지나 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1142987755908917</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不属于可以申请东义大学学生部课程（农村学生选拔）的资格，因为该计划明确规定了不允许来自特定类型的重点高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的学生申请。既然你是一名特殊目的高中的学生，不符合这个条件。
+具体来说，根据提供的信息：
+- 农村学生选拔支持国内高中毕业（预计）者中的两种类型：6年课程和12年课程。
+- 但是，来自科学高中、国际高中、外语高中、体育高中或艺术高中的学生被排除在外。
+所以你的情况不符合申请资格。如果你有其他问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부에 대한 특별한 성적 정보가 제공되지 않았습니다. 표에서 제공된 정보는 전반적인 수능 및 학업성적의 평균과 표준 편차를 나타내고 있으며, 특정 학과나 모집단위의 정확한 평균 성적은 포함되어 있지 않습니다.
+만약 소프트웨어공학부에 대한 특별한 정보가 필요하다면, 해당 학과의 모집단위와 관련된 표 또는 추가 정보를 참조해 보시는 것이 좋을 것 같습니다. 필요한 경우 공식 입학 홈페이지나 대학 관계자에게 문의하시기 바랍니다.
+현재 제공된 표에서는 일반적으로 다음과 같은 정보만 확인할 수 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+- 영어 등급 { 평균 / 표준 편차 }
+- 수능 4개 영역 등급 { 평균 / 표준 편차 }
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+이 정보들은 전반적인 경쟁력을 나타내는 통계치일 뿐, 특정 학과의 정확한 평균 성적을 제공하지는 않습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1223196641353633</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 평균 성적 정보가 제공된 표에서 직접 확인할 수 없습니다. 표에서는 각 단과대학 및 모집단위별로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 표준 편차를 제공하고 있습니다만, 소프트웨어공학부에 대한 정보는 없습니다.
+표에서 확인 가능한 관련 정보는 다음과 같습니다:
+- 공과대학 / 공학 / 소프트웨어융합학과 - 교직: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 108.5, 표준 편차는 제공되지 않았습니다.
+따라서 정확한 소프트웨어공학부 최초 합격자 평균 성적을 알려드리기 위해서는 해당 정보가 포함된 추가적인 데이터나 공지가 필요합니다. 필요한 정보를 찾으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.136660724896019</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합(평생학습자전형, 성인학습자전형 등)의 최초합격자는 2월 2일 금요일 오후 2시에 발표됩니다. 
+具体的来说，对于2024年南校区（&lt;나&gt;군）的学生综合选拔（包括终身学习者类型、成人学习者类型等），首次录取结果将在2月2日星期五下午2点公布。
+이 정보는 다음과 같은 표에서 얻었습니다:
+| 내용       | 일정         | 비고          |
+|------------|--------------|---------------|
+| 최초합격자 발표   | 2024. 02. 02.(금) 14:00 | * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재) |
+이 일정을 참고하여 합격 여부를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1453424036281179</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정확한 면접 일정이 포함되어 있지 않습니다. 면접일정과 관련된 자세한 내용은 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 입학사정관에게 직접 문의하시는 것이 좋습니다. 일반적으로 면접 일정은 입학전형 공지나 입학처 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1042768959435626</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- **수학**: 미적분 또는 확률과 통계 중 하나를 응시해야 합니다.
+- **국어**: 화법과 작문 또는 언어와 매체 중 하나를 응시해야 합니다.
+이는 한의예과에서 수능을 응시할 때 필수로 응시해야 하는 과목이며, 이 외에 다른 과목은 선택적으로 응시 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.09907529722589169</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到具体的关于2024年高考最低录取标准（수능 최저학력 기준）的信息。通常大学会在招生简章或官方网站上公布具体的最低录取分数要求，这个分数会根据各专业的不同有所差异。
+如果您需要了解具体的最低录取标准，建议直接访问该大学的官方网站或者联系学校的招生办公室获取最准确的信息。您也可以参考以往年的数据作为参考，但请注意每年的具体要求可能会有所不同。
+如需进一步帮助，请告诉我您感兴趣的特定专业或学院名称，我可以帮您查找更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.3392094017094017</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 부터 2차 충원합격자 발표가 시작되며, 이어 2024년 2월 20일(화)까지 3차 충원합격자 발표가 이루어집니다. 
+특히 주의할 점은:
+- 최초합격자 및 1차, 2차 충원합격자는 홈페이지를 통해 개별적으로 조회해야 합니다.
+- 합격 여부를 확인하지 않으면 등록하지 못했을 때에도 등록포기로 간주됩니다.
+따라서 지원자는 이 기간 내에 반드시 합격자 발표를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3455466999423043</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지의 충원 합격자 발표가 이루어집니다. 각 차수별로 다음과 같이 진행됩니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+- 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+- 3차 이후의 충원 합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 (개별 전화 통보)
+이 발표들은 모두 입학 안내 홈페이지를 통해 개별적으로 이루어집니다. 모든 지원자는 이 일정에 맞춰 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5127463782901448</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 또한, 다군 수능(일반학생전형)의 경우, 최종등록자 중 외국고교 졸업예정자는 졸업 이후에 발급한 졸업증명서를 2024년 2월 16일까지 추가 제출해야 하며, 이와 관련하여 결원이 발생할 경우 그 인원만큼 예비후보 순위에 따라 충원합격자를 선발합니다.
+따라서 추가모집은 다음과 같은 상황에서 이루어질 수 있습니다:
+1. 수시모집 등록자의 등록 포기로 인한 결원
+2. 다군 수능(일반학생전형)의 외국고교 졸업예정자들의 졸업증명서 제출 미달로 인한 결원
+이러한 경우, 추가모집을 통해 합격자를 선발할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.237606887311752</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형의 하나로, 주요 특징을 다음과 같이 요약할 수 있습니다:
+1. 모집단위 및 인원:
+   - 미래융합대학 인문사회 학부 (라이프융합학부) - 신설: 11명
+   - 미래융합대학 인문사회 부동산자산경영학부: 23명
+2. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 성인학습자(정원외): 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+3. 전형 요소 및 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자가 없는 경우)
+   - 검정고시 합격증명서 및 성적증명서
+   - 외국고교 졸업(예정)자: 공증받은 졸업증명서, 성적증명서 등
+5. 지원 기간:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분에 한함
+6. 서류 제출 장소:
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+평생학습자전형은 평생교육을 받은 학습자의 역량과 적합성을 종합적으로 평가하는 전형으로, 학교생활뿐만 아니라 성인으로서의 경험과 배움도 중요한 평가 요소로 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.411466486540587</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+2. 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.3690201138216261</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보는 다음과 같이 제공되어 있습니다:
+1. 체육학과의 실기고사는 다음과 같습니다:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%) 
+   - Z-런 (230점, 23%)
+2. 레저스포츠학과의 실기고사는 다음과 같습니다:
+   - 제자리 멀리뛰기 (350점, 35%)
+   - Z-런 (350점, 35%)
+3. 태권도학과의 실기고사는 품새, 시범, 겨루기 중 선택하여 응시합니다.
+실기고사에 참여하려면 해당 학과에서 요구하는 실기종목을 준비해야 합니다. 각 종목별로는 다음과 같은 사항이 주어집니다:
+- 운동복 및 운동화 착용
+- 특수화는 금지
+- 부상 등으로 인해 기권한 경우 최저점수 부여
+- 반칙 시 최저점수 부여
+실기고사는 각 학과에서 지정된 장소에서 실시될 것입니다. 정확한 장소와 일정은 공식 입학 안내서나 대학 웹사이트를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.03367779544250132</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **실기종목**:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+2. **장소 및 준비**:
+   - 각 실기종목 시험 당일에는 운동복과 운동화를 착용해야 합니다.
+   - 스파이크나 축구화 같은 특수화는 허용되지 않으며, 신발바닥에 이물질이 묻지 않도록 주의해야 합니다.
+3. **기타 사항**:
+   - 부상이나 기타 사유로 인해 실기를 포기한 경우 (응급환자 포함)에는 해당 종목에 최저점수를 부여됩니다.
+   - 각 실기종목에서 2회 반칙당하면 최저점수를 받게 됩니다.
+따라서 체육학과의 실기고사는 해당 학과에서 주관하는 시험장소에서 진행되며, 준비물과 규정을 준수하여 참여해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0325401376146789</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서, 수시 충원합격자 발표 후에는 전화 통보가 있을 수 있지만, 특히 3회 이상의 전화 통화를 시도하지 않으면 충원합격이 되었음에도 불구하고 등록 의사가 없는 것으로 간주될 수 있으므로 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2480281540692533</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터에서 직접 확인할 수 없습니다. 제공된 내용은 주로 2024학년도의 모집요강과 일정, 전형방법 등에 관한 정보를 포함하고 있습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과가 궁금하다면, 해당 대학의 입학처 웹사이트나 공식 안내서를 확인하거나, 직접 입학처로 문의하시는 것이 가장 정확한 방법입니다. 또한 한국대학교육협의회(KAUA) 또는 교육부 웹사이트에서도 관련 정보를 찾을 수 있을 것입니다.
+만약 추가적인 정보가 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.184268140116764</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년 동일한 정보를 기반으로 답변드리겠습니다. 
+정시 모집에서 수능을 응시하지 않고도 일부 전형에 지원이 가능합니다. 예를 들어, 학생부교과(농어촌학생전형), 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형) 등은 수능을 응시하지 않아도 지원할 수 있습니다.
+이러한 전형들은 주로 고등학교 성적, 학생부 내용 등을 중점적으로 평가하며, 일부는 면접이나 실기평가를 포함하기도 합니다. 따라서 수능 점수 대신 다른 요소들을 통해 합격 여부를 결정합니다.
+하지만 모든 전형이 수능 없이 지원 가능한 것은 아닙니다. 정시 모집의 경우 대부분 수능 성적이 반영되므로, 수능을 응시하지 않은 상태에서 지원하려면 해당하는 특별전형을 찾아보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.05875611537942185</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 대학의 정시모집에서는 고등학교 졸업 후 10년 이상 경과한 사람을 대상으로 하는 특별전형이 따로 마련되어 있지 않으므로, 대부분의 경우 10년이 지났다면 정시모집으로 지원하기는 어렵습니다.
+하지만 일부 대학에서 평생학습자 전형이나 성인학습자 전형 등 특별전형을 통해 지원할 수 있는 기회가 있을 수 있습니다. 동의대학교에서는 나군 학생부종합(평생학습자전형) 또는 나군 학생부종합(성인학습자(정원내·외)전형) 등의 전형을 통해 30세 이상의 성인학습자를 대상으로 지원할 수 있는 기회가 있습니다.
+이러한 특별전형에 지원하려면 다음과 같은 절차를 따르세요:
+1. 해당 전형의 지원 자격 조건을 확인합니다.
+2. 필요한 서류를 준비합니다 (예: 고등학교 졸업증명서, 학교생활기록부 등).
+3. 온라인 원서 접수를 진행합니다.
+따라서, 동의대학교 나군에서 평생학습자 또는 성인학습자를 대상으로 하는 전형에 지원해 보시는 것을 추천드립니다. 자세한 내용은 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시면 도움을 받으실 수 있습니다.
+더 궁금하신 점이 있으시다면, https://ipsi.deu.ac.kr/main.do 페이지를 참조하거나 동의대학교 입학처에 직접 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.07981488203266787</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+2. **서류제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지
+   - 제출 장소: 우편발송용 표지를 출력하여 봉투에 부착 후 제출 또는 우편발송
+3. **&lt;가&gt;군 실기고사**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 14시 이후, 입학안내 홈페이지에서 조회
+4. **&lt;나&gt;군 실기고사**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일 (금) 14시 이후, 입학안내 홈페이지에서 조회
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+     - 3차 이후: 2024년 2월 15일 (목) 19시 ~ 2월 20일 (화) 18시까지
+6. **등록금 납부**:
+   - 지정은행에서 지정 기간 내에 납부해야 합니다.
+이 일정을 준수하여 원서접수와 서류제출, 실기고사 등 필요한 절차를 완료하는 것이 중요합니다. 또한 합격자 발표일에는 반드시 홈페이지를 통해 확인해야 하며, 지정된 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5201375645014888</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류 제출 대상: 특정 모집단위에 따라 다릅니다. (IV 항목 참조)
+4. **&lt;가&gt;군 실기고사 및 &lt;나&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+6. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이 일정을 준수하여 원서접수와 관련된 절차를 완료해야 합니다. 특히, 마감일까지 원서접수를 완료하지 못한 경우 지원자의 책임으로 간주되므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.520523374463385</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **실기/실적(일반학생전형)**:
+   - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+2. **실기/실적(경기실적우수자전형)**:
+   - 모든 모집단위
+3. **학생부교과(농어촌학생전형)**:
+   - 모든 모집단위
+4. **학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)**:
+   - 모든 모집단위
+수능 미응시자는 위의 전형에서 지원이 가능하지만, 각 전형별로 다른 서류 제출 요구사항이나 평가 기준이 있을 수 있으므로, 해당 전형의 세부 안내를 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1139434557443421</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집일정을 보면, 충원 합격자는 다음과 같이 발표 및 등록이 이루어집니다:
+- 1차 충원 합격자 발표: 2024. 02. 14.(수) 09:00
+- 1차 충원 합격자 등록: 2024. 02. 14.(수) 09:00~16:00
+- 2차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+- 2차 충원 합격자 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 전년도에 전자공학과의 충원 합격은 최대 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1580080704038628</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처는 "(주)유웨이어플라이 : 1588-8988(http://www.uwayapply.com)"로 기재되어 있습니다. 그러나 직접적인 전화번호나 주소가 명시되어 있지 않은 경우, 제공된 정보를 바탕으로 추가 확인이 필요할 수 있습니다.
+만약 더 정확한 연락처가 필요하다면, 공식 홈페이지의 '연락처' 또는 '입학 안내' 섹션을 확인하시거나, 위에 언급된 "(주)유웨이어플라이"와 연락을 취해보시는 것이 좋습니다.
+공식 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.08413160530929126</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우, 해당 지원자는 등록(입학) 포기자로 간주될 수 있습니다.
+따라서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우에는 충원합격이 되었으나 등록 의사가 없는 것으로 간주되므로, 지원자는 해당 기간 동안 전화를 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.5229416504716309</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부 또는 온라인 제공 가능, 비대상 교육기관 및 미동의자 제외)
+### 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부 또는 온라인 제공 가능, 비대상 교육기관 및 미동의자 제외)
+이러한 서류들은 각각의 학교에서 발급받거나 공공기관, 무인민원발급기, 인터넷 정부24를 통해 발급 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4663486475155253</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의할 점은:
+- 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년 과정' 서류제출이 가능하다는 것입니다.
+- 모든 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+이러한 서류를 제출해야 지원 절차가 완료됩니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4569621752910163</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到在正选招生（정시 모집）中是否会招收低收入机会均等类型的学生。因此，根据给定的信息，无法确定是否会有针对低收入家庭学生的特殊招生计划。
+如果您需要了解这方面的详细信息，建议直接访问东国大学的官方网站或联系其入学办公室进行确认。通常这类具体政策会在学校的正式招生简章中明确说明。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2403846153846154</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 소수점 셋째자리에서 절사하여 반올림한 값입니다. 따라서 수능 최저등급에서 사탐 2과목 평균산출 시, 2.5등급은 3등급으로 반올림됩니다.
+이에 대한 자세한 내용은 다음과 같습니다:
+1. **평균산출 방법**: 수능 사탐 2과목의 등급을 평균산출합니다.
+2. **소수점 처리**: 산출된 평균값에서 소수점 셋째자리까지 계산하고, 그 값을 반올림하여 최종등급으로 사용합니다.
+3. **절사 vs 반올림**: 2.5등급은 소수점 셋째자리에서 절사하면 2등급이 되지만, 반올림을 하면 3등급이 됩니다.
+따라서 수능 사탐 2과목 평균산출 시, 2.5등급은 **반올림**하여 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1520897531787584</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 정시 모집의 충원 합격자는 다음과 같이 발표됩니다:
+1. 1차 충원 합격자 발표 및 등록:
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지에서 개별 조회
+2. 2차 충원 합격자 발표 및 등록:
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지에서 개별 조회
+3. 3차 이후 충원 합격자 발표 (개별 전화 통보):
+   - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 방법: 홈페이지에서 개별 조회
+따라서 정시 충원 합격자는 최대 3차까지 발표가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3214885541419871</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024년 동일한 상황을 고려하여 답변드리겠습니다.
+다군 수능(일반학생전형)의 경우, 수능 성적 반영 비율은 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수), 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)의 합계를 반영합니다. e비즈니스학과는 상경대학 모집단위에 해당하므로, 수능 성적을 다음과 같이 계산할 수 있습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급 점수 (예: 4등급이면 115점)
+- 탐구 표준점수
+만약 e비즈니스학과의 지원자가 수능 성적이 4.6이라면, 이는 국어와 수학의 표준점수가 반영되며, 영어 등급 점수도 포함됩니다.
+예를 들어:
+- 국어: 108점 (가정)
+- 수학: 105점 (가정)
+- 영어: 4등급 (115점)
+- 탐구: 가정적으로 90점
+합계 점수 = 108 + 105 + 115 + 90 = 418점
+이 점수를 가지고 정시 전형으로 추가 합격 가능성을 판단할 때, 해당 모집단위의 최저합격선을 확인해야 합니다. 각 대학은 수능 성적별로 최저합격선을 설정하므로, 실제 최저합격선과 비교하여 결정해야 합니다.
+따라서, e비즈니스학과 수능 성적이 4.6이라면, 정시 전형으로 추가 합격 가능성을 판단하기 위해서는 해당 모집단위의 최저합격선을 확인해야 합니다. 만약 최저합격선이 418점보다 낮다면, 추가 합격 가능성은 있습니다.
+추가 정보를 원하시거나, 특정 대학의 최저합격선에 대한 자세한 내용이 필요하다면, 해당 대학 입학처 웹사이트나 전화로 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2120436809220352</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5.3이라는 등급을 가진 지원자가 동의대학교 e비즈니스학과에 최초합격할 가능성을 평가하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형방법**: e비즈니스학과의 전형 방법은 학생부교과 위주로 이루어집니다. 이 경우, 지원자의 등급이 중요한 역할을 합니다.
+2. **등급 반영 방식**: 동의대학교는 학생부 교과성적 중 국어, 수학, 영어를 포함하여 8과목 또는 12과목을 반영합니다. 5.3이라는 등급은 고교 졸업(예정)자에 대해 상당히 높은 점수입니다.
+3. **경쟁률**: e비즈니스학과의 모집인원과 지원 인원, 경쟁률을 고려해야 합니다. 이 정보는 표에서 확인할 수 있습니다.
+4. **전형요소 반영 비율**: e비즈니스학과에서는 학생부 교과성적 80%와 면접 20%를 반영합니다. 5.3의 등급은 국어, 수학, 영어 등의 과목에서 높은 성적이기 때문에 좋은 평가를 받을 가능성이 있습니다.
+5. **면접 성과**: 면접에서도 좋은 성적을 받아야 최초합격 가능성은 높아집니다.
+이러한 요소들을 종합적으로 고려하면, 5.3의 등급은 상당히 우수합니다. 그러나 최종 합격 여부는 경쟁률과 지원자의 전반적인 성적이 결정됩니다. 따라서, 동의대학교 e비즈니스학과에 최초합격 가능성은 높다고 볼 수 있지만, 확실한 것은 아니며, 정확한 판단을 위해서는 해당 학과의 모집인원과 경쟁률 등을 확인해야 합니다.
+추가적으로, 지원자의 전반적인 성적 외에도 면접 등 다른 요소들이 중요하기 때문에, 최초합격 가능성은 높지만 확실하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1204399874577258</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有关于eBiznesse学专业的具体录取标准或分数线。因此，仅凭“预估38分”这个信息无法判断是否有可能被预录取。
+为了更准确地评估您的预录取可能性，请参考以下建议：
+1. 查看该专业的历年录取分数线：通常学校会公布各专业往年的录取分数，这可以帮助您了解大致的录取标准。
+2. 了解具体的评分细则：不同大学和专业的评分标准可能有所不同。有些专业可能会更加注重某些科目或特定领域的成绩。
+3. 参考其他同学的成绩：如果可以的话，参考已经预录取的同学的成绩分布情况也是一个很好的方法。
+建议您访问学校官网或者联系招生办公室获取更详细的信息，并根据最新的官方数据进行评估。如果有具体的分数范围或其他相关信息，我可以帮您进一步分析。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.08032128514056225</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수로 동의대학교 간호학과에 합격하기는 어렵다고 볼 수 있습니다.
+간호학과의 전형요소와 평균 성적을 살펴보면:
+1. **전형 요소**: 
+   - 대부분의 경우, 면접이 포함되어 있으며, 면접 점수도 중요합니다.
+   - 학생부 교과성적이 반영되며, 이는 주로 국어, 수학, 영어 등 주요 과목 성적을 기준으로 합니다.
+2. **평균 성적**:
+   - 표에서 보이는 간호학과의 평균 성적은 3.88 (국어국문학과)부터 4.65 (일본학과)까지 다양합니다.
+   - 이 중 가장 낮은 값인 3.88도 3.44보다 높습니다.
+3. **경쟁률**:
+   - 간호학과는 매우 인기 있는 학과로, 경쟁률이 높습니다.
+   - 많은 지원자가 동일한 학과를 목표로 하므로, 낮은 성적만으로 합격하기 어렵습니다.
+4. **추천**:
+   - 3.44라는 점수는 간호학과에 합격하기에는 부족할 수 있습니다.
+   - 다른 학과나 전형을 고려해보시거나, 추가 준비를 하는 것이 좋을 것 같습니다.
+   - 예를 들어, 실기 위주의 전형이나 경쟁률이 낮은 학과 등을 검토해볼 수 있습니다.
+결론적으로 3.44라는 점수로는 간호학과에 합격하기 어렵다고 판단됩니다. 다른 전형이나 학과를 고려하거나, 추가 준비를 하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.09591584868507116</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집요강을 바탕으로, 정시 성적 2.52로는 최종합격이 어렵다고 판단됩니다.
+간호학과의 모집요건은 다음과 같습니다:
+- 모집인원: 110명
+- 지원인원: 37명 (최근 데이터)
+- 경쟁률: 약 3.0배
+간호학과는 일반적으로 높은 경쟁률을 보이며, 합격자들의 평균 수능 점수는 상당히 높습니다. 예를 들어, 최근 몇 년간의 데이터를 보면:
+- 2023년: 평균 수능 점수 2.65
+- 2022년: 평균 수능 점수 2.71
+정시 성적 2.52는 이들 평균보다 약간 낮습니다. 그러나 합격 가능성은 완전히 없지는 않습니다. 일부 특별한 상황이나 면접 등에서 우수한 성과를 보여주면 기회가 있을 수 있습니다.
+추천 사항:
+1. 면접 준비에 만전을 기하십시오.
+2. 추가 지원 가능한 다른 학과나 대학을 탐색해보세요.
+3. 간호학과의 입학사정관 제출 등을 고려해 보세요 (만약 해당 전형이 있다면).
+결론적으로, 정시 성적 2.52로는 최종합격이 어렵지만, 모든 가능성은 열어두고 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.0956672523884094</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 상대적으로 낮은 점수로, 간호학과의 모집인원과 경쟁률을 고려하면 합격하기는 어렵다고 볼 수 있습니다.
+간호학과의 경우 보통 다음과 같은 요소들을 종합적으로 평가합니다:
+1. **성적**: 대부분의 대학에서 간호학과에 지원하려면 4.3 이상의 성적이 요구되며, 일부 학교에서는 4.0 이상을 필요로 합니다.
+2. **학생부**: 학생부 종합 평가에서 긍정적인 평가를 받는 것이 중요합니다.
+3. **면접 및 실기**: 면접이나 실기 시험에서도 좋은 성적을 받아야 합니다.
+4. **추천서 및 자기소개서 등 추가 서류**: 일부 학교에서는 추천서나 자기소개서 등을 요구할 수 있습니다.
+현재의 3.7 성적만으로는 간호학과에 합격하기 어렵다고 볼 수 있습니다. 그러나 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **추가 지원**: 다른 대학이나 전공을 시도해보세요. 일부 대학에서는 더 낮은 성적에도 불구하고 특별한 사유로 입학할 수 있는 경우가 있습니다.
+2. **재수 시도**: 성적이 조금 낮더라도 재수를 통해 성적을 향상시키는 것을 고려해볼 수 있습니다.
+3. **추천서 및 자기소개서 작성**: 좋은 추천서와 자기소개서를 준비하여 학생부 종합 평가에서 긍정적인 점을 부각시킬 수 있습니다.
+4. **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 전달할 수 있도록 준비해보세요.
+결론적으로, 3.7 성적만으로 간호학과에 합격하기는 어렵지만, 다양한 방법을 통해 기회를 찾아볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.05627039945373848</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 일반학생전형(가군)에 해당하며, 이 경우 수능 성적은 주요 평가 요소 중 하나이지만 전반적인 학생부와 실기 등 다른 평가 항목도 고려됩니다.
+수능 성적이 2.58 (국어+수학+탐구)는 일반적으로 낮은 점수로, 간호학과의 정시 모집요강에서 요구하는 수준을 충족하기 어렵다고 볼 수 있습니다. 하지만 최종 합격 여부는 다음과 같은 요소들에 따라 결정됩니다:
+1. **전반적인 성적 평균**: 2024년 간호학과의 전반적인 수능 성적 평균을 확인해야 합니다.
+2. **학생부 평가**: 학생부 교과성적, 진로선택과목 등이 중요합니다.
+3. **면접 및 실기 평가**: 일부 모집단위에서는 면접이나 실기 평가도 포함될 수 있습니다.
+따라서, 단순히 수능 성적이 낮다고 해서 합격할 수 없다고 단정 짓기는 어렵습니다. 하지만 2.58이라는 점수는 매우 낮은 편이므로, 합격 가능성은 매우 낮을 것으로 예상됩니다.
+**추천 사항:**
+1. **학생부 강화**: 학생부 교과성적을 높이는 것이 중요합니다.
+2. **면접 준비**: 면접이나 실기 평가를 잘 준비해야 합니다.
+3. **다른 대학/전형 탐색**: 수능 성적이 낮은 경우, 다른 대학의 정시 모집 또는 특별전형을 고려해볼 필요가 있습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.08241033755274262</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>표에서 게임공학과에 대한 정보를 확인해보겠습니다.
+게임공학과 관련된 정보는 다음과 같습니다:
+- 모집단위: 게임공학과
+- 모집인원: 3명
+- 전형요소 반영비율: 수능 0%, 실기 100%
+예비번호 7번이 주어졌으므로, 이는 동점자 처리를 의미합니다. 동점자 처리 기준을 확인해보겠습니다:
+- 동점자 처리기준:
+  - 1순위: 서류 성적 상위자
+  - 2순위: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+  - 3순위: 영어교과 전 과목 등급 평균 상위자
+  - 4순위: 국어교과 전 과목 등급 평균 상위자
+따라서, 예비번호 7번을 받았다면 동점자 처리 순위에서 7번째로 높은 점수를 가진 지원자가 붙게 됩니다. 하지만 정확한 결과는 합격자 발표 시 확인해야 합니다.
+결론적으로, 현재 정보만으로는 확정적으로 붙을 수 없다고 할 수 있습니다. 최종 결정은 합격자 발표 후에 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1076986336032389</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이 점수가 실제 수능 성적을 반영하고 있는 것으로 가정하겠습니다.
+동의대학교 게임공학과는 일반학생전형으로 지원할 경우, 주요 합격 요인은 수능 성적이 대부분 반영됩니다. 게임공학과는 공과대학 계열에 속하므로, 다군 수능(일반학생전형) 모집단위의 전형방법을 참고하겠습니다.
+다군 수능(일반학생전형)의 경우, 수능 점수를 다음과 같이 반영합니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수 (등급에 따른 점수)
+- 탐구 표준점수
+이 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 성적을 산출합니다.
+4.16이라는 점수가 어느 영역에 해당하는지 정확히 알 수 없지만, 이 점수가 상위권이라면 탐구 영역에서 좋은 성적이 나올 가능성이 높습니다. 예를 들어, 국어 90점, 수학 85점, 영어 4등급 (123점), 탐구 60점 정도라면 다음과 같이 계산할 수 있습니다:
+- 국어: 90
+- 수학: 85
+- 영어: 123 (4등급)
+- 탐구: 60
+상위 3개 영역의 점수를 합산한 후 ÷ 2로 계산하면:
+(90 + 85 + 123) / 2 = 101.5
+이 점수가 동의대학교 게임공학과의 최저합격선을 넘는다면 추가 합격 가능성은 있습니다.
+다만, 정확한 합격 가능성을 예측하기 위해서는:
+1. 동의대학교 게임공학과의 2024년도 최종합격자 성적 분석을 참조해야 합니다.
+2. 해당 모집단위의 최저합격선이 얼마나 되는지 확인해야 합니다.
+일반적으로, 수능 점수가 상위권이라면 추가 합격 가능성은 높습니다. 하지만 정확한 예측은 동의대학교 입학관리팀이나 공식 홈페이지를 통해 확인하는 것이 가장 정확할 것입니다.
+추가로, 지원 전략을 세우기 위해서는:
+- 다른 모집단위(실기/실적, 경기실적우수자전형 등)도 고려해보세요.
+- 면접 준비와 서류 제출에 대한 준비를 철저히 하세요.
+이러한 정보를 바탕으로 지원 전략을 세워보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.0851898917820101</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원자의 성적이 3.75이므로, 경영정보학과의 경우 일반적으로 수능 성적과 학생부 교과성적을 종합적으로 평가받습니다. 하지만 정확한 결정은 해당 모집단위의 전형요소 반영비율과 지원자의 전체적인 자격 요건에 따라 판단됩니다.
+주요 점을 고려해보겠습니다:
+1. **수능 성적**: 수능 성적이 중요하지만, 학생부 교과성적도 같이 평가받습니다.
+2. **학생부 교과성적**: 지원자의 학생부 교과성적이 3.75라면, 이는 좋은 점수입니다. 대체로 3.0 이상이면 충분히 고려될 수 있습니다.
+경영정보학과의 경우, 전형요소 반영비율을 확인해야 합니다:
+- **전형요소 반영비율**: 학생부 교과성적은 일반적으로 중요한 요소입니다.
+- **학생부 교과성적 평균**: 3.75는 좋은 성적이므로, 이 점수로도 충분히 경쟁력을 갖추고 있을 수 있습니다.
+따라서, 지원자의 학생부 교과성적이 3.75라면, 최초등록자로 선발될 가능성이 높습니다. 하지만 확실한 결정을 내리기 위해서는 해당 모집단위의 전형요소 반영비율과 전체적인 평가 기준을 확인해야 합니다.
+만약 추가 정보나 자세한 문의사항이 있다면, 동의대학교 입학처에 직접 문의하시거나 위에서 제공된 링크를 통해 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.09922995044650365</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024년 동일한 조건으로 지원 가능한지 확인해보겠습니다.
+주요 요인은 다음과 같습니다:
+1. **모집 인원 및 지원 인원**: 해당 모집단위의 모집 인원과 지원 인원을 확인해야 합니다.
+2. **경쟁률**: 경쟁률이 얼마나 높았는지를 파악합니다.
+3. **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 이 값이 4.2 이상인지 확인합니다.
+4. **영어 등급 및 수능 4개 영역 등급**: 이들 점수가 적합한지 확인합니다.
+하지만, 정확한 답변을 위해서는 해당 모집단위의 최종등록자 정보를 참조해야 합니다. 예를 들어, "수능(일반학생전형) 최종등록자" 표에서 경영정보학과에 대한 정보를 찾아볼 수 있습니다.
+이 표에서는 다음과 같은 정보가 필요합니다:
+- **모집 인원**: 해당 모집단위의 모집 인원을 확인합니다.
+- **지원 인원**: 실제 지원한 사람들의 수를 확인합니다.
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균 및 표준 편차**: 이 값이 4.2 이상인지 확인합니다.
+만약 최종등록자 정보에서 다음과 같은 조건을 충족한다면, 가능성이 있습니다:
+- 모집 인원이 많고 지원 인원이 적다면.
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균이 4.2보다 낮다면.
+반대로, 만약 다음과 같은 조건이라면 가능성이 낮아질 수 있습니다:
+- 모집 인원이 많고 지원 인원도 많다면.
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균이 4.2보다 높다면.
+따라서, 정확한 답변을 위해서는 해당 모집단위의 최종등록자 정보를 확인해야 합니다. 만약 해당 정보가 제공되지 않는다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 공식 정보를 찾아보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.07302569376482493</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수를 분석하기 위해서는 몇 가지 정보가 필요합니다:
+1. **점수 변환 방식**: 동의대학교에서 사용하는 수능 점수 변환 방법을 확인해야 합니다. 일부 대학은 표준점수, 등급, 또는 특정 영역별 점수를 기반으로 합격기준을 설정할 수 있습니다.
+2. **합격기준**: 경영정보학과의 정확한 합격기준을 알아야 합니다. 이는 대학 홈페이지나 입학처에서 확인할 수 있습니다.
+3. **전형방법**: 일반학생전형은 종종 수능 점수와 교과 성적을 기반으로 평가합니다. 특정 전형에서는 실기시험이나 면접 등 다른 요소도 고려될 수 있습니다.
+4. **모집인원 및 지원자 수**: 이 정보는 경쟁률을 판단하는데 중요합니다. 모집인원이 적고 지원자가 많으면 낮은 점수로 합격하기 어렵습니다.
+5. **전년도 데이터**: 전년도의 합격점수를 참조하면 현재의 합격 가능성에 대한 가늠자로 사용할 수 있습니다.
+만약 동의대학교 경영정보학과의 일반학생전형에서 수능 점수가 핵심 평가 요소라면, 5.33이라는 점수는 상대적으로 낮은 편입니다. 그러나 교과 성적, 실기시험(필요시), 면접 등 다른 평가 항목이 좋은 점수를 보여주면 합격 가능성은 높아질 수 있습니다.
+**추천 조치:**
+1. 동의대학교 경영정보학과의 정확한 합격기준을 확인하세요.
+2. 전년도 합격자들의 평균 점수와 비교해보세요.
+3. 교과 성적, 실기시험(필요시), 면접 등 다른 평가 항목에서 좋은 성적을 보여주도록 노력하세요.
+만약 구체적인 정보를 제공받지 못한다면, 동의대학교 입학처에 직접 문의하는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07819802344180807</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 정시 일반학생전형으로 지원하려는 경우, 성적 평균 3.33 정도로 최초등록자로 합격할 가능성은 매우 낮습니다.
+바이오응용공학부의 전형요소 반영비율을 살펴보면:
+- 서류: 70%
+- 면접: 30%
+성적 평균 3.33은 중간 정도의 성적이므로, 서류와 면접에서 좋은 점수를 받는 것이 중요합니다.
+또한, 바이오응용공학부는 공학교육인증제 운영 학과로, 전공적합성과 인성이 중요한 평가 요소입니다. 따라서:
+1. 관련 과목 성적이 높은 지원자들이 많을 것입니다.
+2. 연구실 경험이나 프로젝트 참여 경험이 있는 지원자가 유리할 수 있습니다.
+3. 바이오, 의학, 식품공학 등 관련 분야의 관심과 열정을 잘 보여줄 수 있어야 합니다.
+따라서 성적 3.33 정도만으로는 충분하지 않습니다. 서류와 면접에서 뛰어난 평가를 받기 위한 준비가 필요합니다. 특히, 바이오응용공학부의 특성에 맞춘 경험과 열정을 잘 보여줄 수 있는 자료들을 준비하는 것이 중요합니다.
+만약 최초등록자로 합격하고 싶다면, 다음과 같은 점들을 강조해야 합니다:
+1. 관련 과목 성적의 높은 등급
+2. 연구실 경험이나 프로젝트 참여 경험이 있는 증거 제공
+3. 바이오응용공학부와 관련된 관심과 열정을 잘 보여줄 수 있는 자료
+결론적으로, 성적이 3.33 정도라면 최초등록자로 합격하기는 어렵지만, 충분히 준비를 하면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1226076900171048</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률을 고려하면 어려울 가능성이 높습니다.
+방사선학과의 전형요소와 성적 기준을 살펴보면:
+1. **전형 요소**: 대부분의 학과는 학생부 교과성적과 면접이 반영됩니다.
+2. **성적 기준**:
+   - 방사선학과는 일반적으로 국어, 수학, 영어 등 주요 과목에서 높은 성적이 요구됩니다.
+   - 4.4등급은 중간 정도의 성적입니다.
+방사선학과의 전형 요소와 기준을 고려하면:
+- **성적**: 4.4등급으로는 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받지 못했다면 경쟁력이 약할 수 있습니다.
+- **면접**: 면접 성적이 중요하므로 준비가 필요합니다.
+추천 사항:
+1. **성적 향상 시도**: 마지막 학기 동안 집중적으로 공부하여 성적을 높이는 것이 좋습니다.
+2. **면접 준비**: 방사선학과에 대한 관심과 열정, 관련 활동 경험 등을 강조할 수 있는 면접 답변을 준비하세요.
+3. **다양한 전형 탐색**: 4.4등급으로는 경쟁력이 약하기 때문에 다른 학과나 전형도 고려해보세요.
+결론적으로, 4.4등급으로 방사선학과에 지원하는 것은 가능하지만, 성적과 면접 준비가 중요합니다. 최선을 다하여 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.07166374872612297</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 GPA는 상대적으로 낮은 점수입니다. 방사선학과는 보통 과학적 지식과 수리 능력이 필요하기 때문에, 이 학과에 지원하는 대부분의 학생들은 높은 GPA를 가지고 있습니다.
+다음은 2.66이라는 GPA가 어떻게 평가될지에 대한 몇 가지 고려사항입니다:
+1. **평균 GPA 비교**: 동의대학교 방사선학과의 정시 모집에서 최근 몇 년간의 평균 GPA를 확인해보세요. 이 정보는 대학 홈페이지나 입학처에서 찾을 수 있습니다.
+2. **전형별 차이**: 학생부종합, 실기/실적 등 다른 전형에서는 2.66이라는 GPA가 더 높게 평가될 수도 있습니다. 정시에서는 수능 점수와 GPA가 주요 평가 기준이므로, 이 점수는 중요한 역할을 합니다.
+3. **수능 성적**: 수능 과목별 점수도 중요합니다. 방사선학과는 과학 관련 과목(물리, 화학 등)의 성적이 높은 것이 유리합니다.
+4. **전형 요소 반영 비율**: 정시에서는 GPA와 수능 점수가 각각 50%씩 반영되므로, 2.66이라는 GPA는 약간 위험할 수 있습니다. 하지만 다른 과목의 성적이 높다면 상황이 달라질 수 있습니다.
+5. **추천서 및 자기소개서**: 추천서와 자기소개서 등 서류평가에서 좋은 점수를 받으면 GPA가 낮더라도 합격 가능성은 높아집니다.
+6. **예비후보 순위**: 결원 발생 시 예비후보 순위에 따라 다시 평가될 수 있으므로, 최선을 다해 준비하는 것이 중요합니다.
+결론적으로 2.66이라는 GPA는 정시에서 약간 위험할 수 있지만, 다른 성적과 서류평가 결과를 고려하면 합격 가능성은 여전히 있습니다. 전반적인 경쟁력을 높이기 위해 수능 과목별 점수와 추천서 등을 최대한 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.06980910242696622</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적은 일반적으로 경쟁이 치열한 경찰행정학과의 경우 낮은 점수로는 합격하기 어려울 가능성이 높습니다. 그러나 농어촌 전형의 특성상 교육경험, 지역 거주 기간 등 다양한 요소가 고려되기 때문에 다음과 같은 사항들을 확인해 보시기 바랍니다:
+1. **학교생활기록부**: 학교생활기록부에서의 활동과 성적은 중요한 평가 요인입니다. 특히 농어촌 거주 기간 동안의 참여와 노력이 잘 반영되어야 합니다.
+2. **농어촌 거주 기간**: 6년 과정이나 12년 과정에 따른 농어촌 거주 기간이 충분히 길어야 합니다. 이 기간 동안의 학교생활과 지역 활동을 잘 반영해야 합니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서에서 자신의 농어촌 생활 경험, 지역에 대한 애정 등을 강조할 수 있습니다.
+4. **면접 성적**: 일부 학과에서는 면접 점수가 전체 평가의 중요한 부분을 차지하기 때문에 면접 준비도 필요합니다.
+5. **전형 요건**: 경찰행정학과의 경우 특정 전형 요건이 있을 수 있으므로, 해당 전형에 대한 자세한 정보를 확인해 보세요.
+6. **대학별 정책**: 동의대학교의 경우 농어촌 학생을 위한 특별 지원 정책이 있을 수 있으니, 대학 홈페이지나 입학처와 상담하여 최신 정보를 얻는 것이 좋습니다.
+결론적으로 3.66이라는 성적만으로는 낮은 확률로 합격할 가능성이 있지만, 농어촌 거주 기간과 활동 등 다양한 요소가 잘 반영된다면 합격 가능성은 열려 있습니다. 최선을 다해 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1512255048568854</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 대부분의 경우, 예비후보자 명단에서 합격하는 것은 매우 어려운 일이며, 실제로는 거의 불가능한 수준입니다.
+정시 일반학생 전형에서는 다음과 같은 요인들이 합격 가능성에 영향을 미칩니다:
+1. 모집 인원: 각 모집단위의 정원이 얼마나 되는지 확인해야 합니다.
+2. 경쟁률: 이미 지원된 사람들의 수와 모집 인원 사이의 비율입니다.
+3. 전형 요소 반영 비율: 수능, 실기 등 다양한 요소가 어떻게 평가되는지 이해하는 것이 중요합니다.
+예비 25위는 매우 높은 순위이므로, 실제 합격 가능성은 매우 낮습니다. 하지만 최선을 다한 지원을 해야 합니다. 다음 단계에서는:
+1. 전형요소 반영 비율과 평가 기준을 잘 이해하고,
+2. 자신의 강점을 부각시키는 서류를 준비하며,
+3. 면접 등 추가 평가 요인에 대해 준비하는 것이 중요합니다.
+결국, 합격 가능성은 매우 낮지만, 최선을 다한 지원이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1098284331134258</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 법경찰행정학부의 정시 모집에서的具体步骤如下：
+1. 首先，需要了解法经警察行政学部在普通类招生中的录取情况。由于没有直接的相关数据，我们无法准确预测具体的平均分数。
+2. 通常情况下，可以参考以下几个因素来推测：
+   - 近几年该专业的录取分数线
+   - 学校整体的录取分数线趋势
+   - 该专业在全校各专业中的排名
+3. 一般来说，如果想确保被录取（即进入安全线），建议分数至少达到近几年最低录取分数线的105%-110%左右。
+4. 如果希望有较高的把握被录取（即接近关门线），则需要考虑达到最近几年最高录取分数线的95%-100%左右。
+5. 为了更准确地预测，可以参考以下步骤：
+   - 查看东义大学官网发布的往年的招生简章和录取分数线
+   - 参考该专业的历年排名情况
+   - 如果可能的话，咨询学校的招生办公室或学长学姐获取第一手信息
+6. 此外，还需要考虑其他因素如面试成绩、综合素质评价等。
+综上所述，具体分数需要根据往年数据进行分析。建议关注东义大学官网发布的最新招生信息，并结合自身情况进行合理预测和准备。</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.1958987507456878</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5등급을 받았다면, 동의대학교 보육가정상담학과에 대한 합격 가능성은 매우 낮습니다.
+보육가정상담학과는 일반적으로 높은 등급을 요구하는 학과 중 하나입니다. 동의대학교의 경우, 수능 성적 기준으로 보면:
+1. **인문사회과학대학**의 모집단위들은 영어 25% + 탐구 25% + 국어 25% + 수학 25%를 반영합니다.
+2. **보육가정상담학과**는 이와 유사한 기준을 따르지만, 보통 더 높은 등급을 요구하는 경향이 있습니다.
+5등급은 대체로 중간 정도의 성적을 나타내며, 대부분의 학과에서는 4등급 이상이 필요합니다. 특히 보육가정상담학과는 전문성과 실무 능력이 중요하기 때문에 더 높은 등급을 요구하는 경향이 있습니다.
+따라서 5등급으로는 보육가정상담학과에 합격하기 어렵다고 볼 수 있습니다. 하지만 최종 결정은 모집단위별로 다르므로, 해당 학과의 정확한 기준을 확인하시고, 다른 전형(예: 실기/실적, 학생부교과 등)으로 지원하는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학과 홈페이지를 통해 최신 정보와 모집요강을 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1233589859665006</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **3차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **3차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+이 일정에 따라, 예비 12번으로 선발된 경우에도 합격 가능성은 있습니다. 그러나 다음과 같은 점들을 고려해야 합니다:
+1. **예비 순위**: 예비 12번이라는 위치는 상대적으로 낮은 순위입니다. 이전 차수에서 충원이 이루어졌다면, 3차에서는 더 낮은 순위의 학생들이 먼저 선발될 가능성이 높습니다.
+2. **결원 발생**: 결원이 발생해야 예비 학생들이 충원될 수 있습니다. 이는 합격자 중 일부가 등록하지 않거나 포기하는 경우에만 가능합니다.
+3. **등록 여부 확인**: 3차 충원 합격자 발표 이후, 합격 여부를 반드시 확인해야 합니다. 홈페이지에서 개별 조회를 통해 자신의 상태를 확인해야 합니다.
+4. **등록 절차**: 등록 기간 내에 등록금을 납부해야 하며, 지정 기일 내에 등록하지 않으면 합격이 취소될 수 있습니다.
+따라서, 예비 12번으로 선발된 경우에도 합격 가능성은 있지만, 확실한 것은 아닙니다. 최종적으로는 3차 충원 합격자 발표 이후 자신의 상태를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3255535304120531</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 등급 점수로는 경쟁이 매우 치열할 것입니다. 하지만 여전히 가능성을 배제하지는 못합니다.
+1. **성적 평균**: 4.75 등급은 상당히 높은 성적입니다. 이 정도의 성적이면 대부분의 모집단위에서 좋은 점수를 받을 수 있습니다.
+2. **유아교육학과 특성**:
+   - 유아교육학과는 일반적으로 평균적인 수능 성적보다는 학생부와 면접 등 다른 요소가 중요하게 작용합니다.
+   - 이전 입학생들의 성적이 높지 않은 경우도 있습니다.
+3. **합격 가능성**:
+   - 유아교육학과의 모집인원이 많다면, 4.75 등급으로는 충분히 합격할 수 있습니다.
+   - 하지만 인원이 제한적이라면, 다른 지원자들과의 경쟁에서 밀릴 가능성이 높습니다.
+4. **전략**:
+   - 면접 준비를 철저하게 하세요. 유아교육학과는 교사로서의 역량을 평가하기 때문에 학업역량과 전공적합성에 대한 질문이 많을 것입니다.
+   - 학생부와 서류평가에서 좋은 점수를 받도록 노력하세요.
+결론적으로, 4.75 등급으로 유아교육학과에 지원하는 것은 가능하지만, 경쟁이 매우 치열할 것이므로 철저한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1509539209787405</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과(아동학과)로 정시 일반학생전형에 지원한다면, 합격 가능성은 있습니다만 확실하지 않습니다.
+보육가정상담학과는 인문사회과학대학 소속이며, 이 과목의 경쟁률과 모집인원 등을 고려해야 합니다. 4.16 등급은 중간적인 수준으로, 최근 몇 년간의 입학성적을 참고하면 어느 정도의 위치에 있는지 파악할 수 있습니다.
+다음은 합격 가능성 평가를 위한 주요 포인트입니다:
+1. **최근 입학성적 분석**: 동의대학교의 공식 홈페이지나 입학처에서 최근 몇 년간의 입학성적을 확인해보세요. 이 정보는 대략적인 경쟁률과 합격선을 예측하는 데 도움이 됩니다.
+2. **경쟁률**: 보육가정상담학과의 정시 모집인원과 지원자 수를 비교하여 경쟁률을 파악하세요. 경쟁률이 높다면 4.16 등급으로 합격하기는 어렵습니다.
+3. **전형요소**: 일반학생전형은 주로 수능 성적에 따라 결정되지만, 일부 과목에서는 실기나 면접 등의 요소도 고려할 수 있습니다. 따라서 전형요소를 잘 준비하는 것이 중요합니다.
+4. **추합**: 추합(수능+면접)을 통해 합격 가능성을 높일 수 있지만, 이 역시 경쟁률과 지원자의 다양성에 따라 달라집니다.
+5. **예비후보자**: 정시 모집에서 미달된 인원은 예비후보자로 선발될 수 있으므로, 최선을 다해 준비하는 것이 중요합니다.
+결론적으로 4.16 등급으로는 합격 가능성이 있지만 확실하지 않습니다. 경쟁률과 최근 입학성적을 참고하여 더 정확한 판단을 내리시길 바랍니다. 추가로 지원하기 전에 동의대학교 입학처 웹사이트나 전화로 상세히 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.09623091701856479</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어융합학과는 정시 모집에 포함되어 있습니다. 정시 모집에서는 학생부종합전형이 주로 사용되며, 이 경우 평균 등급을 기준으로 지원자가 선발됩니다.
+소프트웨어융합학과의 경우, 전반적으로 고등학교 교과 성적과 면접 결과가 중요한 요인입니다. 학생부교과성적 반영방법에 따르면, 국어, 수학, 영어 등 주요 과목의 석차등급 상위 8과목 중에서 최대 4과목을 반영합니다.
+평균 등급을 예측하기 위해서는 해당 학과의 경쟁률과 지원자의 평균 성적을 고려해야 합니다. 일반적으로 소프트웨어융합학과는 경쟁률이 높은 편이며, 평균 3등급 이상을 받는 것이 유리할 것으로 예상됩니다.
+예를 들어, 전반적인 경쟁률이 높고 모집인원이 적다면 2-3등급 정도의 성적을 유지해야 할 수 있습니다. 하지만 정확한 등급은 해당 학과의 최종 입학성적 분석 결과에 따라 달라질 수 있으므로, 최신 정보를 확인하는 것이 좋습니다.
+추가적으로, 면접 준비도 중요합니다. 면접에서는 지원자의 전공 적합성, 진로 계획 등이 평가되므로 충분히 준비해두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.03090953307392996</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』의 경우, 면접 점수와 서류 평가의 비중은 각각 40%와 60%입니다. 따라서 서류 평가는 중요한 역할을 합니다.
+서류 준비 시 주의해야 할 사항들은 다음과 같습니다:
+1. **학교생활기록부**: 학교생활기록부는 매우 중요합니다. 특히 창의적 체험활동, 교과학습발달상황 등에 대한 세부 내용이 잘 기재되어 있어야 합니다.
+2. **진로 활동 및 경험**: 지원 동기에 대해 자세히 서술하고, 이와 관련된 진로 탐색 활동이나 경험을 구체적으로 기재해야 합니다.
+3. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 극복한 노력 등을 설명해야 합니다.
+4. **전공적합성**: 지원 전공(계열)과 관련된 활동이나 경험을 자세히 기재해야 합니다.
+5. **진위 확인**: 서류 평가 시 면접 질문지에 기재된 내용과 일치하는 증거를 첨부하여 진위 여부를 검증받는 것이 중요합니다.
+따라서, 소프트웨어융합학과 지원을 위해선 서류 준비도 충분히 해야 합니다. 특히 학교생활기록부와 관련된 세부 내용은 면접에서도 질문될 수 있으므로, 이를 잘 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.09112558360448643</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자 표를 참조하여, 해당 학과의 평균 수능 점수와 경쟁률을 확인해보겠습니다.
+- **소프트웨어공학부**:
+  - **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: {4.33 / 1.05}
+  - **영어 등급 평균**: {3.77 / 0.67}
+  - **수능 4개 영역 등급 평균**: {5.32 / 0.36}
+이 정보를 바탕으로, 정시 성적이 4.08인 경우:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 평균은 4.33이고, 표준 편차는 1.05입니다.
+   - 4.08은 평균보다 약간 낮습니다.
+2. **영어 등급 평균**: 
+   - 평균은 3.77이며, 표준 편차가 0.67이므로 점수 범위는 넓지 않습니다.
+   - 4.08은 이 범위 내에 포함됩니다.
+3. **수능 4개 영역 등급 평균**:
+   - 평균은 5.32이며, 표준 편차가 0.36이므로 점수 범위는 매우 좁습니다.
+   - 4.08은 이 범위를 크게 벗어나고 있습니다.
+따라서, 정시 성적이 4.08인 경우, 소프트웨어공학부의 최초합격자로 선발될 가능성은 매우 낮습니다. 평균 점수와 비교해보면 수능 4개 영역 등급이 크게 부족합니다.
+하지만, 정시 성적이 단순히 평균을 넘지 못한다고 해서 반드시 불가능한 것은 아닙니다. 입학전형의 경우 다양한 요소들이 고려되므로, 다른 지원자들과의 경쟁력과 학교 측의 판단에 따라 결과는 달라질 수 있습니다.
+추천되는 조치:
+1. **추가 지원**: 다른 전형(학생부종합 등)을 통해 지원해보는 것이 좋습니다.
+2. **개인적 강점 활용**: 자기소개서나 면접에서 개인의 특별한 경험이나 능력을 강조하여 학교 측에 긍정적인 인상을 줄 수 있습니다.
+결론적으로, 정시 성적이 4.08인 경우 소프트웨어공학부 최초합격자로 선발될 가능성은 매우 낮지만, 다른 전형을 통해 지원해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1583399840383081</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 소프트웨어융합학과에 지원하려면, 학생부 교과성적 평균 등급이 5등급 이상이어야 합니다.
+학생부 교과성적 반영방법은 다음과 같습니다:
+- **반영과목**: 전 모집단위(한의예과 제외)는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다. 한의예과는 모든 교과를 반영합니다.
+- **평균 등급**: 전 모집단위(한의예과 제외)는 평균 5등급 이상이어야 합니다.
+따라서, 소프트웨어융합학과에 지원하려면 학생부 교과성적의 평균 등급이 5등급 이상이어야 합니다. 만약 평균 등급이 5등급 미만이라면 해당 학과에 지원하는 것은 어렵습니다.
+추가적으로, 정시 모집에서는 학생부교과 성적이 중요한 요소로 작용하므로, 학업역량을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1688907755074555</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 진학할 수 있는지 판단하기 위해서는 몇 가지 요인을 고려해야 합니다.
+1. **모집 인원 및 지원자 수**: 신소재공학과의 모집 인원과 지원자의 수를 확인해야 합니다. 현재 표에서는 지원 인원이 81명이고, 모집 인원은 56명으로 보입니다. 이는 경쟁률이 약 1.45:1로 낮지 않지만, 정확한 판단을 위해서는 최종 등록자 수와 경쟁률을 확인해야 합니다.
+2. **점수 분포**: 표에서 제공된 평균 점수를 보면, 신소재공학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.97이고, 표준 편차는 15.35입니다. 이 점수 분포를 고려하면, 4.28이라는 점수가 상위권에 속하는 것으로 보입니다.
+3. **전형별 평균 점수**: 전형별로 평균 점수가 다르므로, 지원자가 어떤 전형으로 지원했는지 확인해야 합니다. 예를 들어, 일반학생전형의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 310.88이고, 표준 편차는 7.67입니다.
+4. **경쟁률**: 현재 표에서는 경쟁률이 1.45:1로 낮지만, 이는 최종 등록자 수에 따라 변동될 수 있습니다. 따라서 최신의 경쟁률을 확인하는 것이 중요합니다.
+따라서, 4.28이라는 점수를 가지고 신소재공학과에 진학할 수 있는 가능성은 높습니다. 하지만 정확한 판단을 위해서는 최종 등록자 수와 경쟁률, 그리고 지원자의 전체 점수 분포 등을 확인해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1472135879941874</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서를 제출하지 않아도 됩니다. 
+수능 일반학생전형은 주로 수능 점수와 관련된 성적을 기준으로 합격자를 선발합니다. 따라서 이 전형에서 요구되는 서류는 다음과 같습니다:
+1. **수험번호**: 원서 접수 시 부여받은 수험번호를 반드시 첨부해야 합니다.
+2. **학생부 교과성적**: 3년간의 성적이 반영됩니다.
+3. **추가 가산점**: 일부 모집단위에서는 탐구 과목 등에서 추가 점수를 받을 수 있는 경우가 있습니다.
+자기소개서는 학생부종합전형이나 실기/실적 위주 전형 등 다른 전형에서 요구되지만, 일반학생전형의 경우 수능 성적이 주요 평가 기준이므로 자기소개서를 작성하지 않아도 됩니다.
+자세한 내용은 동의대학교 입학처 웹사이트나 전형요강을 확인하시거나 학교에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.04361670500242532</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집정원과 지원자 수**: 현재 모집정원이 얼마나 되며, 지원자가 몇 명인지에 따라 결정됩니다.
+2. **최저합격선**: 각 모집단위별 최저합격선이 어느 정도인지 확인해야 합니다.
+3. **동점자 처리기준**: 동점자가 발생했을 때 어떻게 처리되는지 확인해야 합니다 (예: 모든 동점자를 합격처리하거나, 일부를 탈락시키는 경우 등).
+4. **추가모집 가능성**: 해당 모집단위에서 추가모집이 가능한지 여부도 중요합니다.
+5. **기타 요인**: 학교별로 다른 평가 기준이나 특별한 조건이 있을 수 있으므로, 해당 대학의 정시모집요강을 꼭 확인해보세요.
+추가 정보를 제공해주실 경우 더 구체적인 답변을 드릴 수 있습니다. 예를 들어, 지원하고자 하는 모집단위와 그 모집단위의 최저합격선 등이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2290399680654658</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부가 특정 정시 등급을 명시적으로 제시하고 있지 않습니다. 신소재공학부는 신소재공학과와 고분자나노공학과로 구성되어 있으며, 모집인원과 지원 인원 등의 데이터만 제공되어 있습니다.
+신소재공학부에 대한 합격 가능성은 다음과 같은 요소들을 종합적으로 고려해야 합니다:
+1. **모집인원**: 신소재공학과는 52명을 모집하고, 고분자나노공학과는 32명을 모집합니다.
+2. **지원 인원**: 지원 인원 수를 확인해야 합니다. 이 정보가 제공되지 않았습니다.
+3. **경쟁률**: 경쟁률은 지원 인원과 모집인원의 비율로 계산됩니다.
+4. **전형 방식**: 전형 방식에 따라 학생부 교과성적, 실기/실적, 면접 등 다양한 요소가 고려될 수 있습니다.
+따라서 정확한 합격 가능 등급을 예측하기 위해서는 동의대학교 입학처나 공식 홈페이지를 참조하거나, 전형요강을 확인하는 것이 가장 정확할 것입니다. 
+추가 정보:
+- **전형 요소 반영 비율**: 일부 전형에서는 학생부 교과성적 70%, 면접 30% 등이 반영될 수 있습니다.
+- **학생부 교과성적 반영 방식**: 국어, 수학, 영어교과 중 석차등급 상위 8과목 또는 12과목을 반영합니다.
+따라서 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전형요강을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.05325443786982248</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 단과대학 및 모집단위별 수능 점수 기준이 작년에 비해 약간 변동될 수 있습니다. 하지만 작년 신소재공학과의 최종 평균 표준점수가 447점보다 약간 높았다면, 이는 다음과 같은 이유로 가능성이 있을 수 있습니다:
+1. **개인적인 성적 변동**: 지원자의 개인적인 성적이 작년에 비해 약간 더 좋았을 수도 있습니다.
+2. **모집 인원 및 지원자 수 변화**: 모집 인원이나 지원자 수가 작년과 달라져 경쟁률이 달라졌을 가능성이 있습니다.
+3. **전형 요소의 변동**: 다른 전형 요소(예: 실기, 면접 등)가 작년에 비해 더 중요하게 평가되었을 수도 있습니다.
+4. **입학사정관의 판단**: 입학사정관들이 각 지원자를 종합적으로 평가할 때, 개인적인 특성이나 전공 적합성을 고려하여 점수가 약간 달라질 수 있습니다.
+따라서 2024년에도 447점으로 충원 합격이 가능하지만, 확실한 것은 아닙니다. 동의대학교의 정시 모집 기준과 전형 요소를 꼼꼼히 확인하고, 최신 정보를 통해 지원 전략을 세우는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 웹사이트나 입학처에 문의하시면 가장 정확한 정보를 얻으실 수 있습니다. 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.1098418908693999</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학과에 합격할 확률이 상당히 낮습니다. 동의대학교의 신소재공학과는 보통 4.0 등급 이상이 필요하며, 일부 모집단위에서는 4.1 등급 이상을 요구하기도 합니다.
+현재 예상 성적인 4.1~4.2등급으로는 합격 가능성은 매우 낮습니다. 하지만 최종적인 성적이 결정될 때까지 포기하지 않는 것이 중요합니다. 또한, 수능 실전에서 좋은 성적을 얻기 위해 충분한 준비와 집중이 필요합니다.
+추가적으로 다음과 같은 조언을 드릴 수 있습니다:
+1. **수험서적과 문제집 활용**: 최신 수능 문제집과 수험서적을 통해 실전 연습을 반복하세요.
+2. **강의 및 학원 이용**: 전문 강사의 지도를 받거나 온라인 학원에 등록하여 부족한 부분을 보완하세요.
+3. **시간 관리**: 충분한 시간을 할애하여 주요 과목별로 집중적으로 공부하세요.
+4. **심리적 준비**: 긴장과 불안을 줄이기 위해 휴식 시간을 갖는 것이 중요합니다.
+최종 성적이 발표될 때까지 계속 노력하고, 가능하다면 다른 대학이나 전형도 고려해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1555979256028662</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 모집에 대한 최신 성적이 제공되지 않았습니다. 하지만, 이전 연도의 데이터를 바탕으로 추정해볼 수 있습니다.
+이전 연도인 2023년의 경우, 동의대학교 인공지능학과는 다음과 같은 전형요소 반영비율을 가지고 있었습니다:
+- **수능**: 4.87
+- **실기**: 1.60
+이는 수능 성적이 주요한 평가 요인임을 나타냅니다.
+2023년 동의대학교 인공지능학과의 수능(일반학생전형) 최종 합격자들의 성적 분포는 다음과 같습니다:
+- **국어**: 104
+- **수학 (미적분)**: 108
+- **영어**: 4등급
+- **과학 (물리 I)**: 47
+- **과학 (화학 I)**: 59
+이러한 성적을 기준으로, 인공지능학과에 지원하려면 다음과 같은 수준의 성적이 필요할 것으로 예상됩니다:
+- **국어**: 100점 이상 추정
+- **수학 (미적분)**: 105점 이상 추정
+- **영어**: 4등급 이상 추정
+- **과학 (물리 I) 또는 과학 (화학 I)**: 45점 이상 추정
+이러한 예상 성적은 이전 연도의 데이터를 기반으로 한 것이므로, 실제 모집요강이나 최종 합격자들의 성적을 확인하는 것이 가장 정확할 것입니다. 또한, 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보를 얻는 것이 좋습니다.
+추가적으로, 인공지능학과는 실기 평가도 포함되므로, 관련 전공 지식이나 기술을 갖춘 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2259641816499869</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 확인해보겠습니다만, 동의대학교의 정시 모집에서는 수능 성적을 주요 평가 기준으로 합니다. 현재 제공된 정보로는 정확한 합격 가능 여부를 판단하기 어렵습니다.
+다음은 일반적인 절차와 고려사항입니다:
+1. **모집단위별 최저학력기준**: 동의대학교 각 모집단위별로 수능 최저학력 기준이 있습니다. 이 기준을 충족해야 합니다.
+2. **수능 반영 비율 및 가산점**: 일부 학과에서는 특정 과목(예: 수학, 국어)에 대한 가산점을 부여하기도 합니다. 따라서 해당 과목의 성적이 중요할 수 있습니다.
+3. **등급 평균 산출 방식**: 등급 평균은 소수점 셋째자리에서 절사됩니다. 이 점을 고려해야 합니다.
+4. **모집인원 및 결원 처리**: 모집인원이 충족되지 않을 경우, 3차 충원 등의 과정이 있을 수 있습니다.
+5. **전형별 특성**: 각 전형(일반학생전형, 성적우수자전형 등)에 따라 평가 기준이 다릅니다.
+현재 제공된 정보로는 정확한 답변을 드리기 어렵습니다. 동의대학교의 공식 홈페이지나 입학처와 연락하여 최신 모집요강과 각 모집단위별 수능 최저학력기준을 확인하시길 권장드립니다. 또한, 해당 학교의 입학관리팀에 직접 문의하거나, 온라인 상담 등을 통해 자세한 정보를 얻으시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 페이지에서 연락처를 확인하여 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1346834143312555</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 동의대학교 소프트웨어공학부에 지원하기에는 약간 낮은 수준일 수 있습니다. 하지만 여전히 가능성이 있으므로 다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **전형 방식**: 
+   - 소프트웨어공학부는 일반적으로 학생부교과와 실적을 종합적으로 평가합니다.
+   - 4.2의 점수는 학업역량을 반영하는 데 충분할 수 있습니다.
+2. **학생부 성적**:
+   - 8과목 중 상위 12과목으로 선택하여 최고 점수를 받은 과목들을 집중적으로 보여주어야 합니다.
+   - 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받았다면 이점이 있습니다.
+3. **추천서 및 자기소개서**:
+   - 추천서와 자기소개서는 학업외의 역량을 보여줄 수 있는 중요한 부분입니다.
+   - 실적과 함께 이러한 서류에서 자신의 열정과 적합성을 잘 표현해야 합니다.
+4. **면접 준비**:
+   - 소프트웨어공학부는 종종 면접을 통해 지원자의 문제 해결 능력과 전공에 대한 이해도를 평가합니다.
+   - 관련 지식과 경험, 그리고 미래 계획 등을 잘 준비해두어야 합니다.
+5. **추천 학교 및 교사**:
+   - 추천서를 받는 학교와 교사는 지원자의 성적 외에도 전반적인 역량을 잘 평가할 수 있어 도움이 될 수 있습니다.
+결론적으로, 4.2의 점수로 소프트웨어공학부에 지원하는 것은 가능하지만 경쟁력은 높지 않을 수 있습니다. 그러나 적절한 준비와 전략을 통해 합격 가능성은 열려있습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.09442707237303591</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 성적 산출 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 일반학생전형에 지원 가능한지 판단해보겠습니다.
+1. **성적 평균**: 3.92는 좋은 성적이지만, 각 학과별 모집인원과 경쟁률을 고려해야 합니다.
+2. **모집인원 및 경쟁률**:
+   - 화학공학과: 일반적으로 중상위권의 점수가 필요합니다.
+   - 환경공학과: 중상위권의 점수가 필요합니다.
+   - 응용화학과: 중상위권의 점수가 필요합니다.
+3. **성적 평균 3.92와 관련**:
+   - 이 점수는 상당히 좋은 성적이지만, 경쟁률이 높은 만큼 확실한 입학을 보장하지는 않습니다.
+   - 최근 몇 년간의 모집인원과 지원자 수를 고려하면, 3.92 정도의 성적만으로는 낮은 확률로 합격할 가능성이 있습니다.
+4. **추천**:
+   - 다른 전공들에 대해도 관심을 가지고 지원하는 것이 좋습니다.
+   - 추가적으로 과외나 자기소개서 준비 등 보완적인 활동을 통해 경쟁력을 높이는 것이 필요합니다.
+결론적으로, 3.92의 성적만으로는 화학환경공학부의 정시 일반학생전형에 확실하게 합격하기 어렵다고 볼 수 있습니다. 다른 전공들에 대해도 관심을 가지고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1004778952110509</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학환경공학부)에 대해 원서를 접수하셨고, 현재 수능 점수가 4.25인 경우, 정시 모집에서 일반학생전형으로 지원이 가능합니다.
+### 관련 정보:
+1. **모집단위**: 화학공학과는 공과대학의 모집단위에 속해 있습니다.
+2. **수능 반영방법**:
+   - 수능 반영 영역: 국어, 수학(미적분), 영어, 과탐(화학Ⅰ)
+   - 가산점 적용 여부: 일반적으로 화학공학과는 가산점이 적용되지 않습니다.
+3. **전형요소**:
+   - 나군 수능(일반학생전형)의 경우, 전 모집단위에 대해 100% 수능 성적을 반영합니다.
+### 지원 절차 및 유의사항:
+- **원서접수**: 이미 원서를 접수하셨으므로, 다음 단계는 수험번호 확인과 전형료 납부입니다.
+- **전형료**: 화학공학과는 일반학생전형으로 35,000원을 납부해야 합니다 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외).
+- **성적 확인**: 수능 성적이 4.25로, 이는 국어, 수학(미적분), 영어, 과탐(화학Ⅰ)의 표준점수를 반영한 점수입니다.
+- **합격 가능 여부**: 수능 성적이 충분히 높아서 일반학생전형으로 지원이 가능합니다. 하지만 최종 합격 여부는 모집단위와 경쟁률, 기타 평가 요소에 따라 결정됩니다.
+### 다음 단계:
+1. **수험번호 확인**: 원서 접수 후 수험번호를 확인하세요.
+2. **전형료 납부**: 35,000원을 결제해야 합니다 (https://ipsi.deu.ac.kr/main.do).
+3. **서류 제출**: 필요하다면 서류를 제출해야 합니다.
+만약 추가로 질문이 있으시거나 더 자세한 정보가 필요하시다면, 동의대학교 입학처 웹사이트나 전화로 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.100884584419306</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 정확히 이해하기 위해서는 해당 대학의 수능 기준 점수와 비교해야 합니다. 일반적으로 동의대학교나 다른 대학교의 영화학과의 정시 모집에서 국어, 영어 등 주요 과목의 성적을 종합적으로 평가합니다.
+1. **수능성적 반영방법 확인**: 
+   - 나군 수능(일반학생전형)에서는 전 모집단위에 대해 100% 수능성적이 반영됩니다.
+   - 영화학과는 일반적으로 국어, 영어 등 주요 과목의 성적이 중요합니다.
+2. **평균 점수와 경쟁률 확인**:
+   - 동의대학교나 다른 대학교의 영화학과에서 최근 몇 년간의 평균 수능성적을 확인해보세요.
+   - 예를 들어, 4.0 이상이면 상당히 좋은 성적이지만, 4.5 이상이면 경쟁력 있는 점수입니다.
+3. **경쟁률**:
+   - 영화학과는 인기 학과로, 경쟁률이 높을 수 있습니다.
+   - 예를 들어, 지원 인원이 7명이고 지원자가 100명이라면 경쟁률은 14:1입니다.
+4. **추천**:
+   - 현재의 점수(4.2)는 좋은 성적일 수 있지만, 정확한 합격 가능성은 최근 몇 년간의 평균 성적과 경쟁률을 고려해야 합니다.
+   - 만약 4.5 이상이면 더 높은 확률로 합격할 수 있습니다.
+따라서, 현재의 점수(4.2)는 좋은 성적이지만, 정확한 합격 가능성은 동의대학교나 다른 대학교의 영화학과의 최근 입시 결과를 참고하여 판단해야 합니다. 만약 가능하다면, 해당 대학의 입학처에 문의하거나, 입시 컨설팅 서비스를 이용하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1092284898322076</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译后的回答：
+面试流程如下：
+1. 在候考室入座
+2. 确认身份
+3. 移动到考场外
+4. 进入考场
+5. 发表个人的志愿和学习计划
+6. 回答与学业能力、专业适应性相关的一般问题并进行问答
+7. 其他问题的回答（包括提交文件的真实性验证）
+8. 离场
+请注意，面试由2-3名评审委员对1名考生进行个别评估。评委将根据考生的口头回答内容进行定性和综合评价。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.5233471593765711</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4066520686876233</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3204872194924808</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.228945863052415</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3635696440900521</v>
+      <c r="D305" t="n">
+        <v>0.3186950504108397</v>
       </c>
     </row>
   </sheetData>
